--- a/Cockpit/ND_template_ERT.xlsx
+++ b/Cockpit/ND_template_ERT.xlsx
@@ -133,7 +133,7 @@
     <t>89036871160</t>
   </si>
   <si>
-    <t>2019-08-25+03:00</t>
+    <t>2019-09-06+20:00</t>
   </si>
   <si>
     <t>9_to_20</t>
@@ -657,7 +657,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>5631050016</v>
+        <v>5631050020</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -731,7 +731,7 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>5631050016</v>
+        <v>5631050020</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -805,7 +805,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>5631050016</v>
+        <v>5631050020</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -879,7 +879,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>5631050016</v>
+        <v>5631050020</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -953,7 +953,7 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>5631050016</v>
+        <v>5631050020</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>

--- a/Cockpit/ND_template_ERT.xlsx
+++ b/Cockpit/ND_template_ERT.xlsx
@@ -657,7 +657,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>5631050020</v>
+        <v>5631050022</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -731,7 +731,7 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>5631050020</v>
+        <v>5631050022</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -805,7 +805,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>5631050020</v>
+        <v>5631050022</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -879,7 +879,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>5631050020</v>
+        <v>5631050022</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -953,7 +953,7 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>5631050020</v>
+        <v>5631050022</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>

--- a/Cockpit/ND_template_ERT.xlsx
+++ b/Cockpit/ND_template_ERT.xlsx
@@ -133,7 +133,7 @@
     <t>89036871160</t>
   </si>
   <si>
-    <t>2019-09-06+20:00</t>
+    <t>2019-10-04+20:00</t>
   </si>
   <si>
     <t>9_to_20</t>
@@ -657,7 +657,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>5631050022</v>
+        <v>5631050024</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -731,7 +731,7 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>5631050022</v>
+        <v>5631050024</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -805,7 +805,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>5631050022</v>
+        <v>5631050024</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -879,7 +879,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>5631050022</v>
+        <v>5631050024</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -953,7 +953,7 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>5631050022</v>
+        <v>5631050024</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>

--- a/Cockpit/ND_template_ERT.xlsx
+++ b/Cockpit/ND_template_ERT.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\Python\Notebooks\SAP\Cockpit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -133,13 +138,13 @@
     <t>89036871160</t>
   </si>
   <si>
-    <t>2019-10-04+20:00</t>
+    <t>2019-10-10+20:00</t>
   </si>
   <si>
     <t>9_to_20</t>
   </si>
   <si>
-    <t>CSE</t>
+    <t>Red</t>
   </si>
   <si>
     <t>3024</t>
@@ -205,8 +210,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,17 +270,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,9 +326,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,9 +360,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,9 +395,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,14 +571,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:X6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,12 +669,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2">
-        <v>5631050024</v>
+        <v>5631050027</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -726,12 +743,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="B3">
-        <v>5631050024</v>
+        <v>5631050027</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -800,12 +817,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
-        <v>5631050024</v>
+        <v>5631050027</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -874,12 +891,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5">
-        <v>5631050024</v>
+        <v>5631050027</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -948,12 +965,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6">
-        <v>5631050024</v>
+        <v>5631050027</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
